--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD2"/>
+  <dimension ref="A1:CD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,40 +854,40 @@
         <v>45777</v>
       </c>
       <c r="B2" t="n">
-        <v>1354143</v>
+        <v>1495</v>
       </c>
       <c r="C2" t="n">
-        <v>52703346</v>
+        <v>79587</v>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>49.85</v>
       </c>
       <c r="E2" t="n">
-        <v>39.8</v>
+        <v>55.3</v>
       </c>
       <c r="F2" t="n">
-        <v>37.75</v>
+        <v>49.85</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>55.1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9</v>
+        <v>10.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1077</v>
+        <v>1403</v>
       </c>
       <c r="J2" t="n">
         <v>2025</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>04/30</t>
+          <t>04/30*</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/04/30*</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -896,25 +896,25 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>38.75443786982247</v>
+        <v>55.1</v>
       </c>
       <c r="O2" t="n">
-        <v>38.82400548696845</v>
+        <v>55.1</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.06956761714597803</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02667705619273022</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.04289056095324782</v>
+        <v>0</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2</v>
+        <v>10.17</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -953,24 +953,18 @@
       <c r="AS2" t="b">
         <v>0</v>
       </c>
-      <c r="AT2" t="n">
-        <v>0.8999999999999986</v>
-      </c>
+      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="n">
-        <v>52703346</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>-106786954</v>
-      </c>
+        <v>-79587</v>
+      </c>
+      <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="n">
-        <v>1354143</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-2944917</v>
-      </c>
+        <v>-1495</v>
+      </c>
+      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>green</t>
         </is>
       </c>
       <c r="AZ2" t="b">
@@ -1003,9 +997,7 @@
       <c r="BI2" t="n">
         <v>2</v>
       </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
-      </c>
+      <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="n">
         <v>0</v>
       </c>
@@ -1022,9 +1014,7 @@
         <v>0</v>
       </c>
       <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="n">
-        <v>0</v>
-      </c>
+      <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="b">
         <v>0</v>
       </c>
@@ -1032,30 +1022,242 @@
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr">
         <is>
+          <t>7723</t>
+        </is>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BZ2" t="n">
+        <v>58.61328028647566</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>65.253386380191</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>20.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1354143</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52703346</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1077</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>04/30</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2025/04/30</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>38.75443786982247</v>
+      </c>
+      <c r="O3" t="n">
+        <v>38.82400548696845</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.06956761714597803</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.02667705619273022</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.04289056095324782</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.8999999999999986</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>52703346</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-106786954</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1354143</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>-2944917</v>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>均線:無明顯趨勢</t>
+        </is>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>均線:無明顯趨勢</t>
+        </is>
+      </c>
+      <c r="BI3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr">
+        <is>
           <t>6936</t>
         </is>
       </c>
-      <c r="BX2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="BY2" t="inlineStr">
+      <c r="BX3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BY3" t="inlineStr">
         <is>
           <t>負區間</t>
         </is>
       </c>
-      <c r="BZ2" t="n">
-        <v>37.91138465802121</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>38.88861534197879</v>
-      </c>
-      <c r="CB2" t="n">
+      <c r="BZ3" t="n">
+        <v>37.9916405440994</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>38.6483594559006</v>
+      </c>
+      <c r="CB3" t="n">
         <v>38.8</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CC3" t="n">
         <v>0.9</v>
       </c>
-      <c r="CD2" t="inlineStr">
+      <c r="CD3" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -1030,14 +1030,14 @@
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>正區間</t>
+          <t>負區間</t>
         </is>
       </c>
       <c r="BZ2" t="n">
-        <v>58.61328028647566</v>
+        <v>58.69219836134346</v>
       </c>
       <c r="CA2" t="n">
-        <v>65.253386380191</v>
+        <v>64.20780163865653</v>
       </c>
       <c r="CB2" t="n">
         <v>55.1</v>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="BZ3" t="n">
-        <v>37.9916405440994</v>
+        <v>37.96003954113571</v>
       </c>
       <c r="CA3" t="n">
-        <v>38.6483594559006</v>
+        <v>38.57329379219762</v>
       </c>
       <c r="CB3" t="n">
         <v>38.8</v>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="BX2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="BZ2" t="n">
-        <v>58.69219836134346</v>
+        <v>57.36513310361368</v>
       </c>
       <c r="CA2" t="n">
-        <v>64.20780163865653</v>
+        <v>63.9548668963863</v>
       </c>
       <c r="CB2" t="n">
         <v>55.1</v>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="BX3" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="BZ3" t="n">
-        <v>37.96003954113571</v>
+        <v>38.03911761736825</v>
       </c>
       <c r="CA3" t="n">
-        <v>38.57329379219762</v>
+        <v>38.47516809691747</v>
       </c>
       <c r="CB3" t="n">
         <v>38.8</v>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="BZ2" t="n">
-        <v>57.36513310361368</v>
+        <v>56.93541987578121</v>
       </c>
       <c r="CA2" t="n">
-        <v>63.9548668963863</v>
+        <v>63.16458012421877</v>
       </c>
       <c r="CB2" t="n">
         <v>55.1</v>
@@ -1238,18 +1238,18 @@
         </is>
       </c>
       <c r="BX3" t="n">
-        <v>0.4</v>
+        <v>0.99</v>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>負區間</t>
+          <t>正區間</t>
         </is>
       </c>
       <c r="BZ3" t="n">
-        <v>38.03911761736825</v>
+        <v>35.1751317869416</v>
       </c>
       <c r="CA3" t="n">
-        <v>38.47516809691747</v>
+        <v>42.27486821305839</v>
       </c>
       <c r="CB3" t="n">
         <v>38.8</v>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="BX2" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="BZ2" t="n">
-        <v>56.93541987578121</v>
+        <v>55.19988991102322</v>
       </c>
       <c r="CA2" t="n">
-        <v>63.16458012421877</v>
+        <v>63.65725294611963</v>
       </c>
       <c r="CB2" t="n">
         <v>55.1</v>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="BX3" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="BZ3" t="n">
-        <v>35.1751317869416</v>
+        <v>36.46365226147542</v>
       </c>
       <c r="CA3" t="n">
-        <v>42.27486821305839</v>
+        <v>41.55856996074679</v>
       </c>
       <c r="CB3" t="n">
         <v>38.8</v>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD3"/>
+  <dimension ref="A1:BT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,315 +535,265 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>箱型力量</t>
+          <t>Lowest_Low</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>箱型力量_5均</t>
+          <t>Highest_High</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Lowest_Low</t>
+          <t>%K</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Highest_High</t>
+          <t>%D</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>%K</t>
+          <t>KD_golden_cross</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>%D</t>
+          <t>Volume_MA_short</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>KD_golden_cross</t>
+          <t>Volume_MA_long</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Volume_MA_short</t>
+          <t>Volume_Oscillator</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Volume_MA_long</t>
+          <t>MA_short</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Oscillator</t>
+          <t>MA_long</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Volume_breakout</t>
+          <t>MA_break</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>MA_short</t>
+          <t>MA_short_volatility</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>MA_long</t>
+          <t>MA_long_volatility</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>MA_break</t>
+          <t>Is_Entangled</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>MA_short_volatility</t>
+          <t>MA_short_change</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>MA_long_volatility</t>
+          <t>MA_long_change</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Is_Entangled</t>
+          <t>Bollinger_MA</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>MA_short_change</t>
+          <t>Bollinger_STD</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>MA_long_change</t>
+          <t>Bollinger_upper</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Bollinger_MA</t>
+          <t>Bollinger_lower</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Bollinger_STD</t>
+          <t>Bollinger_breakout</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Bollinger_upper</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Bollinger_lower</t>
+          <t>RSI_rebound</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Bollinger_breakout</t>
+          <t>Price_Change</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>RSI</t>
+          <t>Volume_Price_Change</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>RSI_rebound</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Price_Change</t>
+          <t>Volume_Change</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change</t>
+          <t>Volume_Change_sum</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum</t>
+          <t>Bar_Color</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Change</t>
+          <t>Close_above_MA</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Change_sum</t>
+          <t>Close_above_MA_5days</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Bar_Color</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Close_above_MA</t>
+          <t>Signal_Balance</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Close_above_MA_5days</t>
+          <t>Signal_Balance_roll</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Analysis</t>
+          <t>Signal_Balance_roll_diff</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Signal_Balance</t>
+          <t>Signal_Balance_uptrend</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>Signal_Balance_roll</t>
+          <t>Signal_Balance_uptrend_3days</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>Signal_Balance_roll_diff</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>Signal_Balance_uptrend</t>
+          <t>短交易量</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>Signal_Balance_uptrend_3days</t>
+          <t>遠交易量</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>短增量</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>Trend_level</t>
+          <t>短增量_</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>Trend_change</t>
+          <t>highlight</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>Weighted_Signal</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>Weighted_Signa_over_threshold</t>
+          <t>highlight_enddate</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>Weighted_Signal_roll</t>
+          <t>stock_number</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>Weighted_Signal_roll_</t>
+          <t>level</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>Weighted_Signal_golden_cross</t>
+          <t>interval_type</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>短交易量</t>
+          <t>lower_bound</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量</t>
+          <t>upper_bound</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>短增量</t>
+          <t>now_price</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>短增量_</t>
+          <t>change_price</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>highlight</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_date</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_enddate</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>stock_number</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>interval_type</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>lower_bound</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>upper_bound</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>now_price</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>change_price</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
@@ -913,17 +863,15 @@
       <c r="S2" t="b">
         <v>0</v>
       </c>
-      <c r="T2" t="n">
-        <v>10.17</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="b">
-        <v>0</v>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -937,115 +885,95 @@
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
+      <c r="AN2" t="b">
+        <v>0</v>
+      </c>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="n">
+      <c r="AP2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="n">
         <v>-79587</v>
       </c>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="n">
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="n">
         <v>-1495</v>
       </c>
-      <c r="AX2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AW2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="b">
+        <v>0</v>
+      </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AZ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
           <t>均線:無明顯趨勢</t>
         </is>
       </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="inlineStr"/>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="inlineStr">
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="inlineStr">
         <is>
           <t>均線:無明顯趨勢</t>
         </is>
       </c>
-      <c r="BI2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>7723</t>
+        </is>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BP2" t="n">
+        <v>56.0965402460693</v>
+      </c>
       <c r="BQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr">
-        <is>
-          <t>7723</t>
-        </is>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="BY2" t="inlineStr">
-        <is>
-          <t>負區間</t>
-        </is>
-      </c>
-      <c r="BZ2" t="n">
-        <v>55.19988991102322</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>63.65725294611963</v>
-      </c>
-      <c r="CB2" t="n">
+        <v>61.9534597539307</v>
+      </c>
+      <c r="BR2" t="n">
         <v>55.1</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="BS2" t="n">
         <v>10.1</v>
       </c>
-      <c r="CD2" t="inlineStr">
+      <c r="BT2" t="inlineStr">
         <is>
           <t>20.26%</t>
         </is>
@@ -1115,17 +1043,15 @@
       <c r="S3" t="b">
         <v>0</v>
       </c>
-      <c r="T3" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="b">
-        <v>0</v>
-      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
@@ -1139,125 +1065,103 @@
       </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="b">
-        <v>0</v>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
+      <c r="AN3" t="b">
+        <v>0</v>
+      </c>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="b">
-        <v>0</v>
+      <c r="AP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.8999999999999986</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>52703346</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-106786954</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8999999999999986</v>
+        <v>1354143</v>
       </c>
       <c r="AU3" t="n">
-        <v>52703346</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>-106786954</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1354143</v>
-      </c>
-      <c r="AX3" t="n">
         <v>-2944917</v>
       </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AW3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="b">
+        <v>0</v>
+      </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AZ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
           <t>均線:無明顯趨勢</t>
         </is>
       </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="inlineStr">
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="inlineStr">
         <is>
           <t>均線:無明顯趨勢</t>
         </is>
       </c>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>6936</t>
+        </is>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BP3" t="n">
+        <v>37.72615063099037</v>
+      </c>
       <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="inlineStr"/>
+        <v>40.59384936900963</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>38.8</v>
+      </c>
       <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr">
-        <is>
-          <t>6936</t>
-        </is>
-      </c>
-      <c r="BX3" t="n">
         <v>0.9</v>
       </c>
-      <c r="BY3" t="inlineStr">
-        <is>
-          <t>正區間</t>
-        </is>
-      </c>
-      <c r="BZ3" t="n">
-        <v>36.46365226147542</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>41.55856996074679</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="CD3" t="inlineStr">
+      <c r="BT3" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="BN2" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="BP2" t="n">
-        <v>56.0965402460693</v>
+        <v>51.20834134301323</v>
       </c>
       <c r="BQ2" t="n">
-        <v>61.9534597539307</v>
+        <v>65.70276976809788</v>
       </c>
       <c r="BR2" t="n">
         <v>55.1</v>
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="BN3" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="BP3" t="n">
-        <v>37.72615063099037</v>
+        <v>38.44825249870224</v>
       </c>
       <c r="BQ3" t="n">
-        <v>40.59384936900963</v>
+        <v>39.9881111376614</v>
       </c>
       <c r="BR3" t="n">
         <v>38.8</v>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT3"/>
+  <dimension ref="A1:BQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,315 +485,300 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>年月日</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>EMA_12</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Date_</t>
+          <t>EMA_26</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>年月日</t>
+          <t>MACD</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>EMA_12</t>
+          <t>MACD-SL</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>EMA_26</t>
+          <t>DIF</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>MACD</t>
+          <t>MACD_golden_cross</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>MACD-SL</t>
+          <t>Lowest_Low</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>DIF</t>
+          <t>Highest_High</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>MACD_golden_cross</t>
+          <t>%K</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Lowest_Low</t>
+          <t>%D</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Highest_High</t>
+          <t>KD_golden_cross</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>%K</t>
+          <t>Volume_MA_short</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>%D</t>
+          <t>Volume_MA_long</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>KD_golden_cross</t>
+          <t>Volume_Oscillator</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Volume_MA_short</t>
+          <t>MA_short</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Volume_MA_long</t>
+          <t>MA_long</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Oscillator</t>
+          <t>MA_break</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>MA_short</t>
+          <t>MA_short_volatility</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>MA_long</t>
+          <t>MA_long_volatility</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>MA_break</t>
+          <t>Is_Entangled</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>MA_short_volatility</t>
+          <t>MA_short_change</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>MA_long_volatility</t>
+          <t>MA_long_change</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Is_Entangled</t>
+          <t>Bollinger_MA</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>MA_short_change</t>
+          <t>Bollinger_STD</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>MA_long_change</t>
+          <t>Bollinger_upper</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Bollinger_MA</t>
+          <t>Bollinger_lower</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Bollinger_STD</t>
+          <t>Bollinger_breakout</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Bollinger_upper</t>
+          <t>RSI</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Bollinger_lower</t>
+          <t>RSI_rebound</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Bollinger_breakout</t>
+          <t>Price_Change</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>RSI</t>
+          <t>Volume_Price_Change</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>RSI_rebound</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Price_Change</t>
+          <t>Volume_Change</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change</t>
+          <t>Volume_Change_sum</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum</t>
+          <t>Bar_Color</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Change</t>
+          <t>Close_above_MA</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Change_sum</t>
+          <t>Close_above_MA_5days</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Bar_Color</t>
+          <t>Analysis</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Close_above_MA</t>
+          <t>Signal_Balance</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Close_above_MA_5days</t>
+          <t>Signal_Balance_roll</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Analysis</t>
+          <t>Signal_Balance_roll_diff</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Signal_Balance</t>
+          <t>Signal_Balance_uptrend</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Signal_Balance_roll</t>
+          <t>Signal_Balance_uptrend_3days</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Signal_Balance_roll_diff</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Signal_Balance_uptrend</t>
+          <t>短交易量</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>Signal_Balance_uptrend_3days</t>
+          <t>遠交易量</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>短增量</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>短交易量</t>
+          <t>短增量_</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量</t>
+          <t>highlight</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>短增量</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>短增量_</t>
+          <t>highlight_enddate</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>highlight</t>
+          <t>stock_number</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>level</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>highlight_enddate</t>
+          <t>interval_type</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>stock_number</t>
+          <t>lower_bound</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>upper_bound</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>interval_type</t>
+          <t>now_price</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>lower_bound</t>
+          <t>change_price</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>upper_bound</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>now_price</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>change_price</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
@@ -827,52 +812,44 @@
       <c r="I2" t="n">
         <v>1403</v>
       </c>
-      <c r="J2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>04/30*</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2025/04/30*</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>2025-04-30</t>
         </is>
       </c>
+      <c r="K2" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
       <c r="N2" t="n">
-        <v>55.1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="b">
-        <v>0</v>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="b">
@@ -880,100 +857,95 @@
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="n">
+      <c r="AM2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>-79587</v>
       </c>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="n">
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="n">
         <v>-1495</v>
       </c>
-      <c r="AU2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="AT2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="b">
+        <v>0</v>
+      </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="AW2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
           <t>均線:無明顯趨勢</t>
         </is>
       </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="inlineStr">
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="inlineStr">
         <is>
           <t>均線:無明顯趨勢</t>
         </is>
       </c>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="n">
+      <c r="BG2" t="b">
         <v>0</v>
       </c>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr">
+      <c r="BJ2" t="inlineStr">
         <is>
           <t>7723</t>
         </is>
       </c>
+      <c r="BK2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BM2" t="n">
+        <v>51.20834134301323</v>
+      </c>
       <c r="BN2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="BO2" t="inlineStr">
-        <is>
-          <t>負區間</t>
-        </is>
+        <v>65.70276976809788</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>55.1</v>
       </c>
       <c r="BP2" t="n">
-        <v>51.20834134301323</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>65.70276976809788</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="BS2" t="n">
         <v>10.1</v>
       </c>
-      <c r="BT2" t="inlineStr">
+      <c r="BQ2" t="inlineStr">
         <is>
           <t>20.26%</t>
         </is>
@@ -1007,52 +979,44 @@
       <c r="I3" t="n">
         <v>1077</v>
       </c>
-      <c r="J3" t="n">
-        <v>2025</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>04/30</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2025/04/30</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2025-04-30</t>
         </is>
       </c>
+      <c r="K3" t="n">
+        <v>38.75443786982247</v>
+      </c>
+      <c r="L3" t="n">
+        <v>38.82400548696845</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.06956761714597803</v>
+      </c>
       <c r="N3" t="n">
-        <v>38.75443786982247</v>
+        <v>-0.02667705619273022</v>
       </c>
       <c r="O3" t="n">
-        <v>38.82400548696845</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-0.06956761714597803</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.02667705619273022</v>
-      </c>
-      <c r="R3" t="n">
         <v>-0.04289056095324782</v>
       </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="b">
-        <v>0</v>
-      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="b">
@@ -1060,108 +1024,101 @@
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="b">
-        <v>0</v>
-      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AK3" t="b">
+        <v>0</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="b">
-        <v>0</v>
-      </c>
+      <c r="AM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.8999999999999986</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>52703346</v>
+      </c>
+      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="n">
-        <v>0.8999999999999986</v>
+        <v>1354143</v>
       </c>
       <c r="AR3" t="n">
-        <v>52703346</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>-106786954</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1354143</v>
-      </c>
-      <c r="AU3" t="n">
         <v>-2944917</v>
       </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AT3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="b">
+        <v>0</v>
+      </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AW3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
           <t>均線:無明顯趨勢</t>
         </is>
       </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="inlineStr">
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="inlineStr">
         <is>
           <t>均線:無明顯趨勢</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr"/>
-      <c r="BG3" t="n">
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="b">
         <v>0</v>
       </c>
       <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr">
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr">
         <is>
           <t>6936</t>
         </is>
       </c>
+      <c r="BK3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>正區間</t>
+        </is>
+      </c>
+      <c r="BM3" t="n">
+        <v>38.44825249870224</v>
+      </c>
       <c r="BN3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BO3" t="inlineStr">
-        <is>
-          <t>正區間</t>
-        </is>
+        <v>39.9881111376614</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>38.8</v>
       </c>
       <c r="BP3" t="n">
-        <v>38.44825249870224</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>39.9881111376614</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="BS3" t="n">
         <v>0.9</v>
       </c>
-      <c r="BT3" t="inlineStr">
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ3"/>
+  <dimension ref="A1:BS3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,135 +650,145 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
+          <t>Volume_Price_Change_sum_12</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_break</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
           <t>Volume_Change</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Volume_Change_sum</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Bar_Color</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Close_above_MA</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Close_above_MA_5days</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Analysis</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Signal_Balance</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Signal_Balance_roll</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Signal_Balance_roll_diff</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Signal_Balance_uptrend</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Signal_Balance_uptrend_3days</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Trend</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>短交易量</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>遠交易量</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>短增量</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>短增量_</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>highlight</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>stock_number</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>interval_type</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>lower_bound</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>upper_bound</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>change_price</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>change_quote</t>
         </is>
@@ -873,79 +883,83 @@
         <v>-79587</v>
       </c>
       <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="n">
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
         <v>-1495</v>
       </c>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="AT2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AV2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="inlineStr">
         <is>
           <t>均線:無明顯趨勢</t>
         </is>
       </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="inlineStr">
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="inlineStr">
         <is>
           <t>均線:無明顯趨勢</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
       <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
-      <c r="BG2" t="b">
-        <v>0</v>
-      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr">
+      <c r="BI2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr">
         <is>
           <t>7723</t>
         </is>
       </c>
-      <c r="BK2" t="n">
+      <c r="BM2" t="n">
         <v>0.9</v>
       </c>
-      <c r="BL2" t="inlineStr">
+      <c r="BN2" t="inlineStr">
         <is>
           <t>負區間</t>
         </is>
       </c>
-      <c r="BM2" t="n">
-        <v>51.20834134301323</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>65.70276976809788</v>
-      </c>
       <c r="BO2" t="n">
+        <v>50.62870741844583</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>65.27129258155418</v>
+      </c>
+      <c r="BQ2" t="n">
         <v>55.1</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BR2" t="n">
         <v>10.1</v>
       </c>
-      <c r="BQ2" t="inlineStr">
+      <c r="BS2" t="inlineStr">
         <is>
           <t>20.26%</t>
         </is>
@@ -1042,83 +1056,87 @@
         <v>52703346</v>
       </c>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
         <v>1354143</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AT3" t="n">
         <v>-2944917</v>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AT3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="inlineStr">
+      <c r="AV3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="inlineStr">
         <is>
           <t>均線:無明顯趨勢</t>
         </is>
       </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="inlineStr">
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="inlineStr">
         <is>
           <t>均線:無明顯趨勢</t>
         </is>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="n">
-        <v>0</v>
       </c>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="n">
         <v>0</v>
       </c>
-      <c r="BG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr">
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr">
         <is>
           <t>6936</t>
         </is>
       </c>
-      <c r="BK3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BL3" t="inlineStr">
+      <c r="BM3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BN3" t="inlineStr">
         <is>
           <t>正區間</t>
         </is>
       </c>
-      <c r="BM3" t="n">
-        <v>38.44825249870224</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>39.9881111376614</v>
-      </c>
       <c r="BO3" t="n">
+        <v>37.97334811373956</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>40.70165188626044</v>
+      </c>
+      <c r="BQ3" t="n">
         <v>38.8</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BR3" t="n">
         <v>0.9</v>
       </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="BS3" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="BO2" t="n">
-        <v>50.62870741844583</v>
+        <v>49.86265213263757</v>
       </c>
       <c r="BP2" t="n">
-        <v>65.27129258155418</v>
+        <v>64.95552968554424</v>
       </c>
       <c r="BQ2" t="n">
         <v>55.1</v>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="BM3" t="n">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="BO3" t="n">
-        <v>37.97334811373956</v>
+        <v>38.65217451736027</v>
       </c>
       <c r="BP3" t="n">
-        <v>40.70165188626044</v>
+        <v>40.13244086725509</v>
       </c>
       <c r="BQ3" t="n">
         <v>38.8</v>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="BO2" t="n">
-        <v>49.86265213263757</v>
+        <v>48.55894415188684</v>
       </c>
       <c r="BP2" t="n">
-        <v>64.95552968554424</v>
+        <v>64.34874815580547</v>
       </c>
       <c r="BQ2" t="n">
         <v>55.1</v>
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="BO3" t="n">
-        <v>38.65217451736027</v>
+        <v>38.75926279775961</v>
       </c>
       <c r="BP3" t="n">
-        <v>40.13244086725509</v>
+        <v>40.14073720224038</v>
       </c>
       <c r="BQ3" t="n">
         <v>38.8</v>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -948,10 +948,10 @@
         </is>
       </c>
       <c r="BO2" t="n">
-        <v>48.55894415188684</v>
+        <v>48.18900683437904</v>
       </c>
       <c r="BP2" t="n">
-        <v>64.34874815580547</v>
+        <v>63.99670745133524</v>
       </c>
       <c r="BQ2" t="n">
         <v>55.1</v>
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="BO3" t="n">
-        <v>38.75926279775961</v>
+        <v>38.78577727067844</v>
       </c>
       <c r="BP3" t="n">
-        <v>40.14073720224038</v>
+        <v>40.12047272932156</v>
       </c>
       <c r="BQ3" t="n">
         <v>38.8</v>

--- a/Result/DailyFiles/2025-04-30.xlsx
+++ b/Result/DailyFiles/2025-04-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS3"/>
+  <dimension ref="A1:BS4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,28 +799,28 @@
         <v>45777</v>
       </c>
       <c r="B2" t="n">
-        <v>1495</v>
+        <v>15050616</v>
       </c>
       <c r="C2" t="n">
-        <v>79587</v>
+        <v>315923954</v>
       </c>
       <c r="D2" t="n">
-        <v>49.85</v>
+        <v>21.1</v>
       </c>
       <c r="E2" t="n">
-        <v>55.3</v>
+        <v>21.15</v>
       </c>
       <c r="F2" t="n">
-        <v>49.85</v>
+        <v>20.85</v>
       </c>
       <c r="G2" t="n">
-        <v>55.1</v>
+        <v>21.05</v>
       </c>
       <c r="H2" t="n">
-        <v>10.1</v>
+        <v>-0.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1403</v>
+        <v>4901</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -828,69 +828,113 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>55.1</v>
+        <v>21.14088016489146</v>
       </c>
       <c r="L2" t="n">
-        <v>55.1</v>
+        <v>21.71548373146815</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-0.5746035665766946</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-0.6905257299127771</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.1159221633360824</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21.35</v>
+      </c>
+      <c r="S2" t="n">
+        <v>62.49999999999994</v>
+      </c>
+      <c r="T2" t="n">
+        <v>58.79629629629611</v>
+      </c>
       <c r="U2" t="b">
         <v>0</v>
       </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>442072367.8</v>
+      </c>
+      <c r="W2" t="n">
+        <v>573042132.8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-22.85517198535737</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21.0725</v>
+      </c>
       <c r="AA2" t="b">
         <v>0</v>
       </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="AB2" t="n">
+        <v>0.20541556794818</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.4736219777185204</v>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>-0.02000000000000313</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.07250000000000156</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>21.0725</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.9774395929646189</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>23.02737918592923</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>19.11762081407076</v>
+      </c>
       <c r="AK2" t="b">
         <v>0</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>57.8512396694215</v>
+      </c>
       <c r="AM2" t="b">
         <v>0</v>
       </c>
-      <c r="AN2" t="inlineStr"/>
+      <c r="AN2" t="n">
+        <v>-0.09999999999999787</v>
+      </c>
       <c r="AO2" t="n">
-        <v>-79587</v>
-      </c>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+        <v>-315923954</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-8139.246144453428</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-8320.679767903581</v>
+      </c>
       <c r="AR2" t="b">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1495</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>-15050616</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-15461063</v>
+      </c>
       <c r="AU2" t="inlineStr">
         <is>
           <t>green</t>
@@ -904,14 +948,18 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>均線:無明顯趨勢</t>
+          <t>&lt;span style='color:green;'&gt;[股價低於短期均線，短期均線低於長期均線]：賣出信號&lt;/span&gt;&lt;br&gt;&lt;span style='color:green;'&gt;[成交量低於均線，成交量震盪指標為負]：賣出信號&lt;/span&gt;&lt;br&gt;均線:下降趨勢</t>
         </is>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
       </c>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
       <c r="BB2" t="b">
         <v>0</v>
       </c>
@@ -920,15 +968,21 @@
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>均線:無明顯趨勢</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr"/>
+          <t>均線:下降趨勢</t>
+        </is>
+      </c>
+      <c r="BE2" t="n">
+        <v>6</v>
+      </c>
       <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
+        <v>-22</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.095818423746912</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1.095818423746912</v>
+      </c>
       <c r="BI2" t="b">
         <v>0</v>
       </c>
@@ -936,11 +990,11 @@
       <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>7723</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="BM2" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
@@ -948,20 +1002,20 @@
         </is>
       </c>
       <c r="BO2" t="n">
-        <v>48.18900683437904</v>
+        <v>20.85377890968955</v>
       </c>
       <c r="BP2" t="n">
-        <v>63.99670745133524</v>
+        <v>23.24442252915938</v>
       </c>
       <c r="BQ2" t="n">
-        <v>55.1</v>
+        <v>21.05</v>
       </c>
       <c r="BR2" t="n">
-        <v>10.1</v>
+        <v>-0.1</v>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>20.26%</t>
+          <t>-0.47%</t>
         </is>
       </c>
     </row>
@@ -970,28 +1024,28 @@
         <v>45777</v>
       </c>
       <c r="B3" t="n">
-        <v>1354143</v>
+        <v>1495</v>
       </c>
       <c r="C3" t="n">
-        <v>52703346</v>
+        <v>79587</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>49.85</v>
       </c>
       <c r="E3" t="n">
-        <v>39.8</v>
+        <v>55.3</v>
       </c>
       <c r="F3" t="n">
-        <v>37.75</v>
+        <v>49.85</v>
       </c>
       <c r="G3" t="n">
-        <v>38.8</v>
+        <v>55.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9</v>
+        <v>10.1</v>
       </c>
       <c r="I3" t="n">
-        <v>1077</v>
+        <v>1403</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -999,19 +1053,19 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>38.75443786982247</v>
+        <v>55.1</v>
       </c>
       <c r="L3" t="n">
-        <v>38.82400548696845</v>
+        <v>55.1</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06956761714597803</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.02667705619273022</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.04289056095324782</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -1049,11 +1103,9 @@
       <c r="AM3" t="b">
         <v>0</v>
       </c>
-      <c r="AN3" t="n">
-        <v>0.8999999999999986</v>
-      </c>
+      <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="n">
-        <v>52703346</v>
+        <v>-79587</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -1061,14 +1113,12 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1354143</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>-2944917</v>
-      </c>
+        <v>-1495</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>green</t>
         </is>
       </c>
       <c r="AV3" t="b">
@@ -1103,9 +1153,7 @@
         <v>0</v>
       </c>
       <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
+      <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="b">
         <v>0</v>
       </c>
@@ -1113,30 +1161,207 @@
       <c r="BK3" t="inlineStr"/>
       <c r="BL3" t="inlineStr">
         <is>
+          <t>7723</t>
+        </is>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>負區間</t>
+        </is>
+      </c>
+      <c r="BO3" t="n">
+        <v>47.76107423695682</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>63.69225909637651</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>20.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1354143</v>
+      </c>
+      <c r="C4" t="n">
+        <v>52703346</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1077</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>38.75443786982247</v>
+      </c>
+      <c r="L4" t="n">
+        <v>38.82400548696845</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.06956761714597803</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.02667705619273022</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.04289056095324782</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.8999999999999986</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>52703346</v>
+      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1354143</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-2944917</v>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AV4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>均線:無明顯趨勢</t>
+        </is>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>均線:無明顯趨勢</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr">
+        <is>
           <t>6936</t>
         </is>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM4" t="n">
         <v>0.4</v>
       </c>
-      <c r="BN3" t="inlineStr">
+      <c r="BN4" t="inlineStr">
         <is>
           <t>正區間</t>
         </is>
       </c>
-      <c r="BO3" t="n">
-        <v>38.78577727067844</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>40.12047272932156</v>
-      </c>
-      <c r="BQ3" t="n">
+      <c r="BO4" t="n">
+        <v>38.82586839672888</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>40.12119042680052</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>38.8</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR4" t="n">
         <v>0.9</v>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="BS4" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
